--- a/public/mint_template.xlsx
+++ b/public/mint_template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25680" windowHeight="12160"/>
+    <workbookView windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
-    <sheet name="说明" sheetId="2" r:id="rId2"/>
+    <sheet name="带扩展属性的数据" sheetId="3" r:id="rId2"/>
+    <sheet name="说明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>图片链接</t>
   </si>
@@ -51,7 +52,70 @@
     <t>？</t>
   </si>
   <si>
+    <t>属性1:trait_type</t>
+  </si>
+  <si>
+    <t>属性1:value</t>
+  </si>
+  <si>
+    <t>属性1:display_type</t>
+  </si>
+  <si>
+    <t>属性2:trait_type</t>
+  </si>
+  <si>
+    <t>属性2:value</t>
+  </si>
+  <si>
+    <t>属性2:display_type</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>如需使用，请将此sheet移动至左边第一个。</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>white~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</t>
+  </si>
+  <si>
     <t>网页表格中没有的列，可以不填，会使用表格上方表单中的内容。</t>
+  </si>
+  <si>
+    <t>扩展属性中， display_type列可不填，可删除；</t>
+  </si>
+  <si>
+    <t>列名中的“属性1”“属性2”字样可以自由修改，需要保留trait_type\value\display_type作为标识。</t>
+  </si>
+  <si>
+    <t>trait_type\value\display_type必须有序，这样连续的列会被识别为一组属性。</t>
+  </si>
+  <si>
+    <t>举例，修改为    age:trait_type      age:value      weight:trait_type    weight:value      颜色:trait_type       尺码:trait_value</t>
   </si>
 </sst>
 </file>
@@ -59,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +137,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -82,6 +153,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -89,39 +167,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,9 +181,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +243,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -156,62 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,175 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +488,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,41 +556,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -492,28 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,153 +596,159 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1001,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1026,38 +1103,38 @@
       </c>
     </row>
     <row r="2" ht="51" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1071,17 +1148,173 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="5" max="5" width="16.7692307692308" customWidth="1"/>
+    <col min="6" max="6" width="12.4615384615385" customWidth="1"/>
+    <col min="7" max="7" width="19.4615384615385" customWidth="1"/>
+    <col min="8" max="8" width="16.7692307692308" customWidth="1"/>
+    <col min="9" max="9" width="12.4615384615385" customWidth="1"/>
+    <col min="10" max="10" width="19.4615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://a.com/1.png"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="128.836538461538" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>11</v>
+    <row r="1" ht="26" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="26" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" ht="26" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="26" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="26" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
